--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,6 +52,9 @@
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
@@ -61,18 +64,18 @@
     <t>die</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
@@ -85,9 +88,15 @@
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -100,103 +109,124 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +674,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -891,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5932203389830508</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5329457364341085</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.795774647887324</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5238095238095238</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5098039215686274</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4697986577181208</v>
+        <v>0.525</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.44</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3636363636363636</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2619047619047619</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2222222222222222</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0.7209302325581395</v>
@@ -1523,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1394101876675603</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>321</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <v>0.7142857142857143</v>
@@ -1573,37 +1603,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009987113402061855</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E22">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3073</v>
+        <v>188</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1619,17 +1649,41 @@
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>68</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1641,21 +1695,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1554959785522788</v>
+      </c>
+      <c r="C24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>315</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6264705882352941</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1667,21 +1745,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01095008051529791</v>
+      </c>
+      <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>0.06</v>
+      </c>
+      <c r="F25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3071</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1693,21 +1795,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01028517999064984</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="E26">
+        <v>0.15</v>
+      </c>
+      <c r="F26">
+        <v>0.85</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2117</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1719,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1745,47 +1871,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5983263598326359</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L28">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="M28">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5932203389830508</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1797,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1823,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.58</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1849,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5280898876404494</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1875,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.3150684931506849</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1901,33 +2027,189 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.2435897435897436</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L35">
+        <v>42</v>
+      </c>
+      <c r="M35">
+        <v>42</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.375</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L37">
         <v>19</v>
       </c>
-      <c r="M34">
+      <c r="M37">
         <v>19</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>59</v>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L39">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.006894390473205891</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
